--- a/aplicacion/plantillas/PlantilaPagoExcel.xlsx
+++ b/aplicacion/plantillas/PlantilaPagoExcel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documentos\OscarProyecto6\EmpresaElectrica\aplicacion\plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patricio Leon\OneDrive\Documentos\GitHub\EmpresaElectrica\aplicacion\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60264588-FFDC-4745-A286-890224BF1CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ppago" sheetId="2" r:id="rId1"/>
@@ -23,10 +24,21 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">Estado!$A$1:$G$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Ppago!$A$1:$G$61</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -266,7 +278,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -934,18 +946,12 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -982,15 +988,6 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1016,13 +1013,7 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1030,12 +1021,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1073,12 +1058,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1089,51 +1068,17 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="8"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1156,9 +1101,6 @@
     <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyBorder="1"/>
@@ -1205,9 +1147,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1227,44 +1166,113 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="8"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="F5" xfId="1"/>
-    <cellStyle name="Moneda 2" xfId="3"/>
+    <cellStyle name="F5" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Moneda 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal_Cuadrilla tipo" xfId="5"/>
-    <cellStyle name="Porcentaje 2" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_Cuadrilla tipo" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Porcentaje 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1430,7 +1438,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Busqueda de datos"/>
@@ -1723,575 +1731,595 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+    </row>
+    <row r="8" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="A8" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F10" s="6" t="s">
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F11" s="6" t="s">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="9" t="s">
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="12" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
-    </row>
-    <row r="15" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="9" t="s">
+      <c r="G14" s="11"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:12" ht="21" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+    </row>
+    <row r="16" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="137">
+      <c r="G16" s="109">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="9" t="s">
+      <c r="E17" s="18"/>
+      <c r="F17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="137">
+      <c r="G17" s="109">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="25"/>
-    </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-    </row>
-    <row r="20" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32" t="s">
+      <c r="C20" s="127"/>
+      <c r="D20" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="I21" s="43"/>
-      <c r="K21" s="44"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="I22" s="43"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
-      <c r="I23" s="43"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-      <c r="I24" s="43"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
-      <c r="I25" s="43"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
-      <c r="I26" s="43"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="42"/>
-      <c r="I27" s="43"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
-      <c r="I28" s="43"/>
-    </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
-    </row>
-    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="50" t="s">
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+      <c r="I21" s="34"/>
+      <c r="K21" s="35"/>
+    </row>
+    <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="I23" s="34"/>
+    </row>
+    <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="I24" s="34"/>
+    </row>
+    <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="I25" s="34"/>
+    </row>
+    <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+      <c r="I27" s="34"/>
+    </row>
+    <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
+      <c r="I28" s="34"/>
+    </row>
+    <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+    </row>
+    <row r="30" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33"/>
+    </row>
+    <row r="31" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
+      <c r="B31" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="53"/>
-    </row>
-    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="55"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
-      <c r="B33" s="50" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="44"/>
+    </row>
+    <row r="32" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="29"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="46"/>
+    </row>
+    <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="29"/>
+      <c r="B33" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="53"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="56" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
+    </row>
+    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="53"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="36"/>
-      <c r="B35" s="57" t="s">
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="44"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="29"/>
+      <c r="B35" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="58"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="57" t="s">
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="47"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="29"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="44"/>
+    </row>
+    <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="29"/>
+      <c r="B37" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="36"/>
-      <c r="B38" s="62" t="s">
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="44"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="29"/>
+      <c r="B38" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="53"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="62" t="s">
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="44"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="29"/>
+      <c r="B39" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="62" t="s">
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="44"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="29"/>
+      <c r="B40" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="53"/>
-    </row>
-    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="63" t="s">
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="44"/>
+    </row>
+    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="29"/>
+      <c r="B41" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="53"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="57" t="s">
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="44"/>
+    </row>
+    <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="29"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="44"/>
+    </row>
+    <row r="43" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="29"/>
+      <c r="B43" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="58"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="36"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="42"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="42"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="67"/>
-    </row>
-    <row r="47" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="68" t="s">
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="47"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="29"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="33"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="29"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="33"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="51"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
+    </row>
+    <row r="47" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E47" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="F47" s="69"/>
-      <c r="G47" s="70"/>
-    </row>
-    <row r="50" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="71"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-    </row>
-    <row r="53" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B57" s="73"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="73"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B58" s="73"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="73"/>
-      <c r="G58" s="73"/>
-    </row>
-    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="74" t="s">
+      <c r="F47" s="55"/>
+      <c r="G47" s="56"/>
+    </row>
+    <row r="50" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="115"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="115"/>
+    </row>
+    <row r="53" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="116"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+    </row>
+    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="74"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="75" t="s">
+      <c r="C59" s="117"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="F59" s="75"/>
-      <c r="G59" s="73"/>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B60" s="73" t="s">
+      <c r="F59" s="118"/>
+      <c r="G59" s="57"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C60" s="76"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="75" t="s">
+      <c r="C60" s="58"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="F60" s="75"/>
-      <c r="G60" s="73"/>
-      <c r="K60" s="77"/>
-      <c r="L60" s="77"/>
-    </row>
-    <row r="61" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="78" t="s">
+      <c r="F60" s="118"/>
+      <c r="G60" s="57"/>
+      <c r="K60" s="110"/>
+      <c r="L60" s="110"/>
+    </row>
+    <row r="61" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
-      <c r="E61" s="78" t="s">
+      <c r="C61" s="111"/>
+      <c r="D61" s="111"/>
+      <c r="E61" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="F61" s="78"/>
-      <c r="G61" s="78"/>
-      <c r="K61" s="79"/>
-      <c r="L61" s="79"/>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B62" s="73"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="78"/>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B63" s="73"/>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="73"/>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B64" s="80"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="73"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65" s="73"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="73"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B66" s="73"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="73"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B67" s="73"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="73"/>
-      <c r="F67" s="73"/>
-      <c r="G67" s="73"/>
+      <c r="F61" s="111"/>
+      <c r="G61" s="111"/>
+      <c r="K61" s="112"/>
+      <c r="L61" s="112"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="111"/>
+      <c r="F62" s="111"/>
+      <c r="G62" s="111"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="K60:L60"/>
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="E61:G61"/>
@@ -2299,26 +2327,6 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B50:G50"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.47244094488188981" top="0.98425196850393704" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2329,7 +2337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja61"/>
   <dimension ref="A8:E30"/>
   <sheetViews>
@@ -2337,97 +2345,97 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="19.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="128"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-    </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="128"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="129" t="s">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="130"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+    </row>
+    <row r="9" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="130"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="129"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-    </row>
-    <row r="12" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="130" t="s">
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="131"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+    </row>
+    <row r="12" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="131"/>
-    </row>
-    <row r="14" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="132" t="s">
+      <c r="C13" s="104"/>
+    </row>
+    <row r="14" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="133"/>
-    </row>
-    <row r="15" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="132" t="s">
+      <c r="C14" s="106"/>
+    </row>
+    <row r="15" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="133"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="132" t="s">
+      <c r="C15" s="106"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="133"/>
-    </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B18" s="134"/>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="135" t="s">
+      <c r="C16" s="106"/>
+    </row>
+    <row r="18" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B18" s="107"/>
+    </row>
+    <row r="19" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="108" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="135"/>
-    </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="135"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-    </row>
-    <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="136" t="s">
+    <row r="20" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="108"/>
+    </row>
+    <row r="21" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="108"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+    </row>
+    <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="136"/>
-      <c r="C30" s="136"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2442,374 +2450,366 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B33" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="11.44140625" style="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="13.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="8" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+    </row>
+    <row r="8" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="B8" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="81" t="s">
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H12" s="60"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="82"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G14" s="82"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G15" s="82"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="12" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="85"/>
-    </row>
-    <row r="17" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="9" t="s">
+      <c r="G16" s="62"/>
+    </row>
+    <row r="17" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="E17" s="10"/>
-      <c r="G17" s="87"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="G18" s="23"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="24" t="s">
+      <c r="C17" s="63"/>
+      <c r="E17" s="8"/>
+      <c r="G17" s="64"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="90"/>
-      <c r="G19" s="23"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="24" t="s">
+      <c r="C19" s="67"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="92" t="s">
+      <c r="C20" s="68"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="90"/>
-      <c r="G21" s="93"/>
-    </row>
-    <row r="22" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="94" t="s">
+      <c r="C21" s="67"/>
+      <c r="G21" s="70"/>
+    </row>
+    <row r="22" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-    </row>
-    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="95" t="s">
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+    </row>
+    <row r="24" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B24" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="98"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="99" t="s">
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="93"/>
-      <c r="G25" s="100"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="99" t="s">
+      <c r="F25" s="70"/>
+      <c r="G25" s="76"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="93"/>
-      <c r="G26" s="100"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="99" t="s">
+      <c r="F26" s="70"/>
+      <c r="G26" s="76"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="93"/>
-      <c r="G27" s="100"/>
-    </row>
-    <row r="28" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="101" t="s">
+      <c r="F27" s="70"/>
+      <c r="G27" s="76"/>
+    </row>
+    <row r="28" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="104"/>
-    </row>
-    <row r="29" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="105" t="s">
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="80"/>
+    </row>
+    <row r="29" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="106"/>
-    </row>
-    <row r="31" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="107" t="s">
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="82"/>
+    </row>
+    <row r="31" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="104"/>
-    </row>
-    <row r="32" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-    </row>
-    <row r="33" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="108" t="s">
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="80"/>
+    </row>
+    <row r="32" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+    </row>
+    <row r="33" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="111"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="112" t="s">
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="87"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="93"/>
-      <c r="G34" s="113"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="112" t="s">
+      <c r="F34" s="70"/>
+      <c r="G34" s="89"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="93"/>
-      <c r="G35" s="113"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="112" t="s">
+      <c r="F35" s="70"/>
+      <c r="G35" s="89"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="93"/>
-      <c r="G36" s="113"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="112" t="s">
+      <c r="F36" s="70"/>
+      <c r="G36" s="89"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="F37" s="93"/>
-      <c r="G37" s="113"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="112"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="113"/>
-    </row>
-    <row r="39" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="112" t="s">
+      <c r="F37" s="70"/>
+      <c r="G37" s="89"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="88"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="89"/>
+    </row>
+    <row r="39" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="93"/>
-      <c r="G39" s="113"/>
-    </row>
-    <row r="40" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="114" t="s">
+      <c r="F39" s="70"/>
+      <c r="G39" s="89"/>
+    </row>
+    <row r="40" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="117"/>
-    </row>
-    <row r="41" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
-    </row>
-    <row r="42" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="118" t="s">
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="93"/>
+    </row>
+    <row r="41" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+    </row>
+    <row r="42" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="118"/>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="119" t="s">
+      <c r="C42" s="135"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="135"/>
+      <c r="F42" s="135"/>
+      <c r="G42" s="135"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="122"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="112" t="s">
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="97"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="F44" s="93"/>
-      <c r="G44" s="113"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="112" t="s">
+      <c r="F44" s="70"/>
+      <c r="G44" s="89"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="93"/>
-      <c r="G45" s="113"/>
-    </row>
-    <row r="46" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="123" t="s">
+      <c r="F45" s="70"/>
+      <c r="G45" s="89"/>
+    </row>
+    <row r="46" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="125"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F47" s="93"/>
-      <c r="G47" s="93"/>
-    </row>
-    <row r="48" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B48" s="126" t="s">
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="100"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+    </row>
+    <row r="48" spans="2:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B48" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="F48" s="93"/>
-      <c r="G48" s="127"/>
-    </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="77" t="str">
+      <c r="F48" s="70"/>
+      <c r="G48" s="102"/>
+    </row>
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="110" t="str">
         <f>[1]Ppago!B59</f>
         <v>RAFAEL ORELLANA CALDERÓN</v>
       </c>
-      <c r="C54" s="77"/>
-      <c r="E54" s="77" t="s">
+      <c r="C54" s="110"/>
+      <c r="E54" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="F54" s="77"/>
-    </row>
-    <row r="55" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="77" t="str">
+      <c r="F54" s="110"/>
+    </row>
+    <row r="55" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="110" t="str">
         <f>[1]Ppago!E60</f>
         <v>DARWIN PATRICIO LEÓN BRABO</v>
       </c>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-    </row>
-    <row r="56" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="79" t="s">
+      <c r="C55" s="110"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="110"/>
+    </row>
+    <row r="56" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E60" s="79"/>
-      <c r="F60" s="79"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E59" s="110"/>
+      <c r="F59" s="110"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E60" s="112"/>
+      <c r="F60" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B42:G42"/>
     <mergeCell ref="E60:F60"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="E59:F59"/>
     <mergeCell ref="B55:G55"/>
     <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B42:G42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.74803149606299213" top="0.78740157480314965" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/aplicacion/plantillas/PlantilaPagoExcel.xlsx
+++ b/aplicacion/plantillas/PlantilaPagoExcel.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patricio Leon\OneDrive\Documentos\GitHub\EmpresaElectrica\aplicacion\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60264588-FFDC-4745-A286-890224BF1CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D40A08B-C117-498F-940D-B848CA7CB23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ppago" sheetId="2" r:id="rId1"/>
-    <sheet name="Multas" sheetId="5" r:id="rId2"/>
-    <sheet name="Estado" sheetId="6" r:id="rId3"/>
+    <sheet name="Estado" sheetId="6" r:id="rId2"/>
+    <sheet name="Multas" sheetId="5" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Estado!$A$1:$G$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Estado!$A$1:$G$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Ppago!$A$1:$G$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -140,9 +140,6 @@
     <t>DESCUENTOS:</t>
   </si>
   <si>
-    <t>Anticipo (10%)</t>
-  </si>
-  <si>
     <t>Impuesto a la renta (2.75%):</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t xml:space="preserve">ESTADO DE PAGO </t>
+  </si>
+  <si>
+    <t>Anticipo (0%)</t>
   </si>
 </sst>
 </file>
@@ -393,12 +393,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -434,6 +428,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -974,9 +974,6 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1057,7 +1054,7 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1079,7 +1076,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1092,13 +1089,13 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1162,26 +1159,26 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -1247,23 +1244,26 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1342,6 +1342,56 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6705600" cy="688320"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A5D558-CC3F-476A-8C62-031A765E2CD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="209550"/>
+          <a:ext cx="6705600" cy="688320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -1375,56 +1425,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="180975"/>
-          <a:ext cx="6705600" cy="688320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6705600" cy="688320"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A5D558-CC3F-476A-8C62-031A765E2CD9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="457200" y="209550"/>
           <a:ext cx="6705600" cy="688320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1737,8 +1737,8 @@
   </sheetPr>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1760,22 +1760,22 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
     </row>
     <row r="8" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
       <c r="H8" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1806,37 +1806,37 @@
       <c r="F13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="135"/>
     </row>
     <row r="14" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15"/>
+      <c r="G14" s="135"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="124" t="s">
+      <c r="E15" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
     </row>
     <row r="16" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
@@ -1849,10 +1849,10 @@
       <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="109">
+      <c r="G16" s="108">
         <v>1</v>
       </c>
     </row>
@@ -1860,15 +1860,15 @@
       <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="18"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="109">
+      <c r="G17" s="108">
         <v>1</v>
       </c>
     </row>
@@ -1876,427 +1876,427 @@
       <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="127"/>
-      <c r="D20" s="26" t="s">
+      <c r="C20" s="126"/>
+      <c r="D20" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="128"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="I21" s="34"/>
-      <c r="K21" s="35"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="I21" s="33"/>
+      <c r="K21" s="34"/>
     </row>
     <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="I22" s="34"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="I22" s="33"/>
     </row>
     <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="I23" s="34"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="I23" s="33"/>
     </row>
     <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-      <c r="I24" s="34"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="I24" s="33"/>
     </row>
     <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="I25" s="34"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="I25" s="33"/>
     </row>
     <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-      <c r="I26" s="34"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
+      <c r="I26" s="33"/>
     </row>
     <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
-      <c r="I27" s="34"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="I27" s="33"/>
     </row>
     <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-      <c r="I28" s="34"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32"/>
+      <c r="I28" s="33"/>
     </row>
     <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
     </row>
     <row r="30" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="41" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="44"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="43"/>
     </row>
     <row r="32" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="46"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
-      <c r="B33" s="41" t="s">
+      <c r="A33" s="28"/>
+      <c r="B33" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="44"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
     </row>
     <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="113" t="s">
+      <c r="A34" s="28"/>
+      <c r="B34" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="44"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
     </row>
     <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="121" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="47"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="46"/>
     </row>
     <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="44"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43"/>
     </row>
     <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
-      <c r="B37" s="121" t="s">
+      <c r="A37" s="28"/>
+      <c r="B37" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="44"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="43"/>
     </row>
     <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
-      <c r="B38" s="119" t="s">
+      <c r="A38" s="28"/>
+      <c r="B38" s="118" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="43"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="28"/>
+      <c r="B39" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="44"/>
-    </row>
-    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
-      <c r="B39" s="119" t="s">
+      <c r="C39" s="118"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="43"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="28"/>
+      <c r="B40" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="44"/>
-    </row>
-    <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
-      <c r="B40" s="119" t="s">
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="43"/>
+    </row>
+    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="28"/>
+      <c r="B41" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="44"/>
-    </row>
-    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
-      <c r="B41" s="120" t="s">
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="43"/>
+    </row>
+    <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="28"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="43"/>
+    </row>
+    <row r="43" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="28"/>
+      <c r="B43" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="44"/>
-    </row>
-    <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
-      <c r="B42" s="120"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="44"/>
-    </row>
-    <row r="43" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="121" t="s">
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="46"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="28"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="32"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="32"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="50"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="52"/>
+    </row>
+    <row r="47" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E47" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="47"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="33"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="33"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="51"/>
-      <c r="B46" s="114"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="53"/>
-    </row>
-    <row r="47" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E47" s="54" t="s">
+      <c r="F47" s="54"/>
+      <c r="G47" s="55"/>
+    </row>
+    <row r="50" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="114"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="114"/>
+    </row>
+    <row r="53" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="115"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="115"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="115"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+    </row>
+    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="116" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="116"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="117" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" s="117"/>
+      <c r="G59" s="56"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="57"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="117" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="117"/>
+      <c r="G60" s="56"/>
+      <c r="K60" s="109"/>
+      <c r="L60" s="109"/>
+    </row>
+    <row r="61" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="110"/>
+      <c r="D61" s="110"/>
+      <c r="E61" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="F47" s="55"/>
-      <c r="G47" s="56"/>
-    </row>
-    <row r="50" spans="2:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="115"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="115"/>
-    </row>
-    <row r="53" spans="2:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="116"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
-      <c r="E53" s="116"/>
-      <c r="F53" s="116"/>
-      <c r="G53" s="116"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="57"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-    </row>
-    <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="117" t="s">
-        <v>42</v>
-      </c>
-      <c r="C59" s="117"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="118" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" s="118"/>
-      <c r="G59" s="57"/>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" s="58"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="118" t="s">
-        <v>39</v>
-      </c>
-      <c r="F60" s="118"/>
-      <c r="G60" s="57"/>
-      <c r="K60" s="110"/>
-      <c r="L60" s="110"/>
-    </row>
-    <row r="61" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="111" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" s="111"/>
-      <c r="D61" s="111"/>
-      <c r="E61" s="111" t="s">
-        <v>37</v>
-      </c>
-      <c r="F61" s="111"/>
-      <c r="G61" s="111"/>
-      <c r="K61" s="112"/>
-      <c r="L61" s="112"/>
+      <c r="F61" s="110"/>
+      <c r="G61" s="110"/>
+      <c r="K61" s="111"/>
+      <c r="L61" s="111"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="111"/>
-      <c r="F62" s="111"/>
-      <c r="G62" s="111"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="110"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="110"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="57"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="56"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="57"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="57"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -2337,126 +2337,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Hoja61"/>
-  <dimension ref="A8:E30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.44140625" style="1"/>
-    <col min="2" max="2" width="19.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-    </row>
-    <row r="9" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="131"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="131"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-    </row>
-    <row r="12" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="103" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="104"/>
-    </row>
-    <row r="14" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="106"/>
-    </row>
-    <row r="15" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="106"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="106"/>
-    </row>
-    <row r="18" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B18" s="107"/>
-    </row>
-    <row r="19" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="108" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
-    </row>
-    <row r="21" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="108"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-    </row>
-    <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="132"/>
-      <c r="C30" s="132"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A8:E9"/>
-    <mergeCell ref="A10:E11"/>
-    <mergeCell ref="A30:C30"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B33" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -2477,47 +2364,47 @@
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
     </row>
     <row r="8" spans="2:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B8" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
+      <c r="B8" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="133" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
+      <c r="B10" s="129" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="60"/>
+        <v>72</v>
+      </c>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="7" t="s">
         <v>4</v>
       </c>
@@ -2525,277 +2412,277 @@
       <c r="F16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="62"/>
+      <c r="G16" s="61"/>
     </row>
     <row r="17" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="63"/>
+      <c r="C17" s="62"/>
       <c r="E17" s="8"/>
-      <c r="G17" s="64"/>
+      <c r="G17" s="63"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="G18" s="18"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="66"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="68"/>
-      <c r="G20" s="18"/>
+      <c r="B20" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="67"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="67"/>
-      <c r="G21" s="70"/>
+      <c r="B21" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="66"/>
+      <c r="G21" s="69"/>
     </row>
     <row r="22" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="134" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
+      <c r="B23" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
     </row>
     <row r="24" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B24" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="74"/>
+      <c r="B24" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="73"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="76"/>
+      <c r="B25" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="69"/>
+      <c r="G25" s="75"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="70"/>
-      <c r="G26" s="76"/>
+      <c r="B26" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="69"/>
+      <c r="G26" s="75"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="76"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="75"/>
     </row>
     <row r="28" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="80"/>
+      <c r="B28" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="79"/>
     </row>
     <row r="29" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="82"/>
+      <c r="B30" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="81"/>
     </row>
     <row r="31" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="80"/>
+      <c r="B31" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="79"/>
     </row>
     <row r="32" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
     </row>
     <row r="33" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="84" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="87"/>
+      <c r="B33" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="86"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="70"/>
-      <c r="G34" s="89"/>
+      <c r="B34" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="69"/>
+      <c r="G34" s="88"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="70"/>
-      <c r="G35" s="89"/>
+      <c r="B35" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="69"/>
+      <c r="G35" s="88"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="70"/>
-      <c r="G36" s="89"/>
+      <c r="B36" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="69"/>
+      <c r="G36" s="88"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="70"/>
-      <c r="G37" s="89"/>
+      <c r="B37" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="69"/>
+      <c r="G37" s="88"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="88"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="89"/>
+      <c r="B38" s="87"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="88"/>
     </row>
     <row r="39" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="88" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="70"/>
-      <c r="G39" s="89"/>
+      <c r="B39" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="69"/>
+      <c r="G39" s="88"/>
     </row>
     <row r="40" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="93"/>
+      <c r="B40" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="92"/>
     </row>
     <row r="41" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
     </row>
     <row r="42" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="135" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="135"/>
-      <c r="D42" s="135"/>
-      <c r="E42" s="135"/>
-      <c r="F42" s="135"/>
-      <c r="G42" s="135"/>
+      <c r="B42" s="131" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="131"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="131"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="131"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="94" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="97"/>
+      <c r="B43" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="96"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="F44" s="70"/>
-      <c r="G44" s="89"/>
+      <c r="B44" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="69"/>
+      <c r="G44" s="88"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="88" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="70"/>
-      <c r="G45" s="89"/>
+      <c r="B45" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="69"/>
+      <c r="G45" s="88"/>
     </row>
     <row r="46" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="100"/>
+      <c r="B46" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="99"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
     </row>
     <row r="48" spans="2:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B48" s="101" t="s">
-        <v>50</v>
-      </c>
-      <c r="F48" s="70"/>
-      <c r="G48" s="102"/>
+      <c r="B48" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="69"/>
+      <c r="G48" s="101"/>
     </row>
     <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="110" t="str">
+      <c r="B54" s="109" t="str">
         <f>[1]Ppago!B59</f>
         <v>RAFAEL ORELLANA CALDERÓN</v>
       </c>
-      <c r="C54" s="110"/>
-      <c r="E54" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="F54" s="110"/>
+      <c r="C54" s="109"/>
+      <c r="E54" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="109"/>
     </row>
     <row r="55" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="110" t="str">
+      <c r="B55" s="109" t="str">
         <f>[1]Ppago!E60</f>
         <v>DARWIN PATRICIO LEÓN BRABO</v>
       </c>
-      <c r="C55" s="110"/>
-      <c r="D55" s="110"/>
-      <c r="E55" s="110"/>
-      <c r="F55" s="110"/>
-      <c r="G55" s="110"/>
+      <c r="C55" s="109"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="109"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="109"/>
     </row>
     <row r="56" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="112" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" s="112"/>
-      <c r="D56" s="112"/>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
+      <c r="B56" s="111" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="111"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="111"/>
+      <c r="F56" s="111"/>
+      <c r="G56" s="111"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E59" s="110"/>
-      <c r="F59" s="110"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="109"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E60" s="112"/>
-      <c r="F60" s="112"/>
+      <c r="E60" s="111"/>
+      <c r="F60" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2817,4 +2704,117 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Hoja61"/>
+  <dimension ref="A8:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="19.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="132"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+    </row>
+    <row r="9" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="132"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="133"/>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+    </row>
+    <row r="12" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="103"/>
+    </row>
+    <row r="14" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="105"/>
+    </row>
+    <row r="15" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="105"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="105"/>
+    </row>
+    <row r="18" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B18" s="106"/>
+    </row>
+    <row r="19" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="107" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="107"/>
+    </row>
+    <row r="21" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="107"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+    </row>
+    <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="134" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A8:E9"/>
+    <mergeCell ref="A10:E11"/>
+    <mergeCell ref="A30:C30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>